--- a/coordinates_sample/702定襄郡/702定襄郡.xlsx
+++ b/coordinates_sample/702定襄郡/702定襄郡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/702定襄郡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF766A4-C0B5-7F4D-B9C8-ECE7D4146815}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52964F7-AA92-AC41-8628-2A8EB2BEF994}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="702" sheetId="4" r:id="rId2"/>
     <sheet name="702(NULL)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -533,7 +533,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F11"/>
+      <selection activeCell="H2" sqref="H2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -869,7 +869,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
